--- a/data/trans_dic/P19_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P19_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,3%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,6%</t>
+          <t>80,29%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>82,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>84,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>87,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>22,38%</t>
+          <t>84,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,95%</t>
+          <t>77,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>79,1%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>79,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>86,31%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>18,55%</t>
+          <t>83,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>16,22%</t>
+          <t>77,66%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>79,67%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>81,22%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>85,23%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>87,58%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>83,78%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>82,43%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>18,59; 26,04</t>
+          <t>73,8; 81,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 23,72</t>
+          <t>76,44; 83,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,88; 20,44</t>
+          <t>79,18; 85,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,13; 19,85</t>
+          <t>78,51; 87,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,24; 18,74</t>
+          <t>84,53; 90,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,57; 25,33</t>
+          <t>81,03; 86,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>18,17; 24,61</t>
+          <t>81,03; 86,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 23,0</t>
+          <t>74,18; 80,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,1; 16,04</t>
+          <t>75,91; 82,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 19,3</t>
+          <t>76,94; 82,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>20,09; 24,83</t>
+          <t>83,44; 88,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,34; 23,05</t>
+          <t>84,36; 90,24</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 20,78</t>
+          <t>80,55; 86,0</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,83</t>
+          <t>78,08; 83,72</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>14,19; 18,18</t>
+          <t>75,15; 79,82</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>77,25; 81,9</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>78,86; 83,3</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>82,47; 87,05</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>85,32; 89,6</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>81,91; 85,92</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>80,3; 84,21</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>83,29%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>83,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,6%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,37%</t>
+          <t>86,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>86,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>79,52%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>81,2%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>83,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>19,38%</t>
+          <t>83,26%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>14,48%</t>
+          <t>87,15%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>80,97%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>80,82%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>82,46%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>85,11%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>86,89%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>85,59%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>86,99%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,66</t>
+          <t>79,34; 86,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,09; 24,64</t>
+          <t>78,3; 85,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,44</t>
+          <t>79,4; 86,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,16; 18,17</t>
+          <t>80,93; 89,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,8; 18,59</t>
+          <t>86,8; 93,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,2; 24,51</t>
+          <t>81,45; 90,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,19; 23,61</t>
+          <t>81,86; 90,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,66; 21,83</t>
+          <t>74,83; 81,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,51; 18,55</t>
+          <t>75,31; 83,2</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,01; 21,84</t>
+          <t>77,94; 84,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 21,62</t>
+          <t>79,91; 86,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,77; 22,79</t>
+          <t>79,13; 86,64</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>15,24; 20,18</t>
+          <t>78,66; 89,35</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>12,16; 17,09</t>
+          <t>82,33; 91,07</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>11,13; 18,27</t>
+          <t>78,36; 83,47</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>78,27; 83,48</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>79,66; 84,76</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>82,06; 87,6</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>84,67; 89,13</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>81,71; 88,75</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>84,02; 89,73</t>
         </is>
       </c>
     </row>
@@ -1020,75 +1189,105 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>87,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,27%</t>
+          <t>85,92%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>86,85%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>81,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>82,97%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>20,77%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>79,23%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>78,97%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>77,02%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>84,12%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>87,19%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>16,69%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>16,97%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>18,03%</t>
-        </is>
-      </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>83,31%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>82,51%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>82,02%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>82,78%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>85,04%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,55; 19,17</t>
+          <t>80,1; 92,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,97; 20,25</t>
+          <t>78,36; 91,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,57; 19,52</t>
+          <t>80,32; 91,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 29,79</t>
+          <t>67,65; 89,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>68,34; 89,59</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>15,08; 27,24</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 28,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,06; 30,39</t>
+          <t>72,61; 84,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>10,64; 22,44</t>
+          <t>71,33; 85,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>70,21; 82,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>77,83; 89,19</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>78,45; 93,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>12,87; 21,72</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>12,78; 22,26</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>13,81; 22,54</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>12,13; 22,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>78,41; 87,06</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>77,11; 86,66</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>77,2; 85,64</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>75,5; 87,55</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>78,53; 89,9</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>81,1%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>81,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,86%</t>
+          <t>84,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>88,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>84,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>84,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>78,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16,39%</t>
+          <t>80,05%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>85,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>85,79%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>83,61%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,63%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>79,62%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>80,46%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>81,8%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>84,89%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>87,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>84,19%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>83,49%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 21,45</t>
+          <t>78,15; 83,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,38; 21,97</t>
+          <t>79,22; 84,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,15; 18,57</t>
+          <t>81,04; 85,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,54; 17,78</t>
+          <t>81,47; 87,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 17,85</t>
+          <t>85,67; 90,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,55; 23,86</t>
+          <t>82,28; 87,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,22; 22,77</t>
+          <t>82,02; 86,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,92; 21,66</t>
+          <t>76,12; 80,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,61; 16,11</t>
+          <t>76,96; 81,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 18,59</t>
+          <t>77,97; 82,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,95; 21,99</t>
+          <t>82,95; 86,98</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,81; 21,43</t>
+          <t>83,37; 87,63</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 19,68</t>
+          <t>81,22; 86,0</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,18; 16,57</t>
+          <t>79,95; 84,74</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>14,19; 17,61</t>
+          <t>77,96; 81,2</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>78,83; 82,16</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>80,09; 83,18</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>83,14; 86,63</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>85,35; 88,54</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>82,43; 85,75</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>81,67; 85,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente optimista con el futuro (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 98,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>507.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>559.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>570.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>447.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>561.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>548.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>599.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>650.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>728.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>551.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>698.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>716.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1106.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>978.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>1209.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>1298.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>998.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>1259.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>1264.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1237347</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1286417</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1338495</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1358063</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1379980</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>190205</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>189550</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1344491</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1380102</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1425876</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1526282</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1533632</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>195111</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>189037</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2581838</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2666520</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2764371</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>2884347</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>2913613</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>385316</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>378588</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1175325; 1295841</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1224714; 1342905</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>1281410; 1388077</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1268738; 1414005</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1329617; 1423215</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>182871; 195966</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>183269; 196294</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1284849; 1393596</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1324443; 1431953</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1373657; 1476856</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1475572; 1565837</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>1479727; 1582688</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>188654; 201409</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>182000; 195142</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2498522; 2653556</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2585590; 2741310</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2684296; 2835235</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2790977; 2945954</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>2838550; 2980827</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>376678; 395145</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>368794; 386765</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>442.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>520.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>425.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>922.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>770.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>939.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>962.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>802.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>393.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>404.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1123074</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1110991</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1146865</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1157041</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1237533</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>61629</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63640</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1052187</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1080967</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1091144</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1116755</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1140233</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>53800</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>56921</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2175260</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2191959</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2238009</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>2273797</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>2377766</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>115429</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>120561</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1069781; 1168091</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1059350; 1155668</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1087884; 1189904</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1085932; 1199737</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1186621; 1275918</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>58127; 64558</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59978; 66329</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1001350; 1095043</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1023682; 1130882</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1047374; 1132928</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1062761; 1156152</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1083575; 1186541</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>49946; 56736</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>53772; 59481</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2105236; 2242337</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>2122800; 2264135</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2161841; 2300415</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2192377; 2340482</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>2317162; 2439248</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>110197; 119686</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>116438; 124361</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>109.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>204.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>259.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>342660</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>352122</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>356300</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>330492</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>347968</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>311632</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>313190</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>305442</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>335103</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>352219</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>654292</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>665313</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>661742</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>665595</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>700186</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>313994; 361556</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>321139; 374870</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>329486; 374979</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>274410; 361181</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>286603; 375713</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>285619; 333816</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>282888; 338327</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>278422; 328819</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>310079; 355328</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>316910; 376352</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>615828; 683703</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>621838; 698806</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>622864; 690914</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>607064; 703909</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>646578; 740238</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1065.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>911.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1117.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1131.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>907.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>758.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>761.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1205.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1041.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1282.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1388.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1082.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>907.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>2270.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1952.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2399.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2519.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>1989.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>1652.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>1668.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2703080</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2749532</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2841660</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2845596</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2965482</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>251834</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>253191</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2708311</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2774260</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2822462</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2978142</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3026084</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>248911</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>245958</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>5411390</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>5523792</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>5664122</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>5823738</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>5991565</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>500746</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>499148</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2604524; 2773796</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2665758; 2833205</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2754142; 2911658</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2740187; 2928815</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2878002; 3025813</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>244409; 258599</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>245612; 259839</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2636426; 2775702</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2694120; 2851959</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2749011; 2891820</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2900448; 3041471</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>2940619; 3090934</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>241783; 256030</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>238592; 252870</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>5298313; 5519015</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5412460; 5640607</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>5545850; 5759719</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>5703527; 5942959</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>5877765; 6097620</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>490235; 510014</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>488260; 509591</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
